--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.75670566666667</v>
+        <v>2.469524</v>
       </c>
       <c r="H2">
-        <v>59.270117</v>
+        <v>7.408571999999999</v>
       </c>
       <c r="I2">
-        <v>0.05135788836328295</v>
+        <v>0.006775482240913427</v>
       </c>
       <c r="J2">
-        <v>0.05135788836328296</v>
+        <v>0.006775482240913427</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N2">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O2">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P2">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q2">
-        <v>121.8892524476737</v>
+        <v>6.745823374595999</v>
       </c>
       <c r="R2">
-        <v>1097.003272029063</v>
+        <v>60.71241037136399</v>
       </c>
       <c r="S2">
-        <v>0.02674689124422266</v>
+        <v>0.003758902673494199</v>
       </c>
       <c r="T2">
-        <v>0.02674689124422266</v>
+        <v>0.003758902673494199</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.75670566666667</v>
+        <v>2.469524</v>
       </c>
       <c r="H3">
-        <v>59.270117</v>
+        <v>7.408571999999999</v>
       </c>
       <c r="I3">
-        <v>0.05135788836328295</v>
+        <v>0.006775482240913427</v>
       </c>
       <c r="J3">
-        <v>0.05135788836328296</v>
+        <v>0.006775482240913427</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N3">
         <v>0.204412</v>
       </c>
       <c r="O3">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P3">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q3">
-        <v>1.346169239578222</v>
+        <v>0.1682667799626666</v>
       </c>
       <c r="R3">
-        <v>12.115523156204</v>
+        <v>1.514401019664</v>
       </c>
       <c r="S3">
-        <v>0.0002953980069963406</v>
+        <v>9.376148973064499E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002953980069963406</v>
+        <v>9.376148973064502E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.75670566666667</v>
+        <v>2.469524</v>
       </c>
       <c r="H4">
-        <v>59.270117</v>
+        <v>7.408571999999999</v>
       </c>
       <c r="I4">
-        <v>0.05135788836328295</v>
+        <v>0.006775482240913427</v>
       </c>
       <c r="J4">
-        <v>0.05135788836328296</v>
+        <v>0.006775482240913427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N4">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O4">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P4">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q4">
-        <v>110.8095206850245</v>
+        <v>5.245364464261332</v>
       </c>
       <c r="R4">
-        <v>997.2856861652209</v>
+        <v>47.20828017835199</v>
       </c>
       <c r="S4">
-        <v>0.02431559911206395</v>
+        <v>0.002922818077688583</v>
       </c>
       <c r="T4">
-        <v>0.02431559911206395</v>
+        <v>0.002922818077688583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>329.6209206666667</v>
       </c>
       <c r="H5">
-        <v>988.8627620000001</v>
+        <v>988.862762</v>
       </c>
       <c r="I5">
-        <v>0.8568551220744788</v>
+        <v>0.9043607975506752</v>
       </c>
       <c r="J5">
-        <v>0.856855122074479</v>
+        <v>0.9043607975506752</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N5">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O5">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P5">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q5">
-        <v>2033.600555124969</v>
+        <v>900.4020658997659</v>
       </c>
       <c r="R5">
-        <v>18302.40499612472</v>
+        <v>8103.618593097894</v>
       </c>
       <c r="S5">
-        <v>0.4462451921712192</v>
+        <v>0.5017213681395899</v>
       </c>
       <c r="T5">
-        <v>0.4462451921712192</v>
+        <v>0.50172136813959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>329.6209206666667</v>
       </c>
       <c r="H6">
-        <v>988.8627620000001</v>
+        <v>988.862762</v>
       </c>
       <c r="I6">
-        <v>0.8568551220744788</v>
+        <v>0.9043607975506752</v>
       </c>
       <c r="J6">
-        <v>0.856855122074479</v>
+        <v>0.9043607975506752</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,16 +800,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N6">
         <v>0.204412</v>
       </c>
       <c r="O6">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P6">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q6">
         <v>22.45949054510489</v>
@@ -818,10 +818,10 @@
         <v>202.135414905944</v>
       </c>
       <c r="S6">
-        <v>0.004928420996498061</v>
+        <v>0.01251486058369686</v>
       </c>
       <c r="T6">
-        <v>0.004928420996498061</v>
+        <v>0.01251486058369687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>329.6209206666667</v>
       </c>
       <c r="H7">
-        <v>988.8627620000001</v>
+        <v>988.862762</v>
       </c>
       <c r="I7">
-        <v>0.8568551220744788</v>
+        <v>0.9043607975506752</v>
       </c>
       <c r="J7">
-        <v>0.856855122074479</v>
+        <v>0.9043607975506752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N7">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O7">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P7">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q7">
-        <v>1848.746286100456</v>
+        <v>700.1275808382658</v>
       </c>
       <c r="R7">
-        <v>16638.71657490411</v>
+        <v>6301.148227544391</v>
       </c>
       <c r="S7">
-        <v>0.4056815089067617</v>
+        <v>0.3901245688273884</v>
       </c>
       <c r="T7">
-        <v>0.4056815089067617</v>
+        <v>0.3901245688273884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.30925033333333</v>
+        <v>32.38899933333333</v>
       </c>
       <c r="H8">
-        <v>105.927751</v>
+        <v>97.16699799999999</v>
       </c>
       <c r="I8">
-        <v>0.09178698956223814</v>
+        <v>0.08886372020841134</v>
       </c>
       <c r="J8">
-        <v>0.09178698956223817</v>
+        <v>0.08886372020841135</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N8">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O8">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P8">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q8">
-        <v>217.8408789517543</v>
+        <v>88.47472985991399</v>
       </c>
       <c r="R8">
-        <v>1960.567910565789</v>
+        <v>796.2725687392259</v>
       </c>
       <c r="S8">
-        <v>0.04780213333714355</v>
+        <v>0.04929982303709884</v>
       </c>
       <c r="T8">
-        <v>0.04780213333714355</v>
+        <v>0.04929982303709885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.30925033333333</v>
+        <v>32.38899933333333</v>
       </c>
       <c r="H9">
-        <v>105.927751</v>
+        <v>97.16699799999999</v>
       </c>
       <c r="I9">
-        <v>0.09178698956223814</v>
+        <v>0.08886372020841134</v>
       </c>
       <c r="J9">
-        <v>0.09178698956223817</v>
+        <v>0.08886372020841135</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N9">
         <v>0.204412</v>
       </c>
       <c r="O9">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P9">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q9">
-        <v>2.405878159712445</v>
+        <v>2.206900043908444</v>
       </c>
       <c r="R9">
-        <v>21.652903437412</v>
+        <v>19.862100395176</v>
       </c>
       <c r="S9">
-        <v>0.0005279363044112874</v>
+        <v>0.001229727197783136</v>
       </c>
       <c r="T9">
-        <v>0.0005279363044112874</v>
+        <v>0.001229727197783136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.30925033333333</v>
+        <v>32.38899933333333</v>
       </c>
       <c r="H10">
-        <v>105.927751</v>
+        <v>97.16699799999999</v>
       </c>
       <c r="I10">
-        <v>0.09178698956223814</v>
+        <v>0.08886372020841134</v>
       </c>
       <c r="J10">
-        <v>0.09178698956223817</v>
+        <v>0.08886372020841135</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N10">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O10">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P10">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q10">
-        <v>198.0391453513181</v>
+        <v>68.79548695864088</v>
       </c>
       <c r="R10">
-        <v>1782.352308161863</v>
+        <v>619.1593826277679</v>
       </c>
       <c r="S10">
-        <v>0.04345691992068332</v>
+        <v>0.03833416997352936</v>
       </c>
       <c r="T10">
-        <v>0.04345691992068333</v>
+        <v>0.03833416997352937</v>
       </c>
     </row>
   </sheetData>
